--- a/spliced/falling/2023-03-25_17-55-24/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.071417987346649</v>
+        <v>-0.7120251655578613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.361852638423443</v>
+        <v>1.784507364034653</v>
       </c>
       <c r="E2" t="n">
-        <v>3.242989569902419</v>
+        <v>2.399995267391204</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0175623763352632</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2777909636497497</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.716687679290772</v>
+        <v>-0.8870223164558411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0018857717514038</v>
+        <v>1.693844005465508</v>
       </c>
       <c r="E3" t="n">
-        <v>4.452265739440918</v>
+        <v>2.417137637734413</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0302378293126821</v>
+        <v>-0.1429424732923507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5580254197120667</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6604980230331421</v>
+        <v>0.0444404482841491</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.890828639268875</v>
+        <v>-1.0569589138031</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2718941420316697</v>
+        <v>1.552494168281555</v>
       </c>
       <c r="E4" t="n">
-        <v>4.244596153497697</v>
+        <v>2.973462641239166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4694499373435974</v>
+        <v>-0.2125810980796814</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.051451802253723</v>
+        <v>0.4230241775512695</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.956462264060974</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-7.35106348991394</v>
+        <v>-1.252092391252517</v>
       </c>
       <c r="D5" t="n">
-        <v>2.290824487805367</v>
+        <v>1.304344907402993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9694806933402997</v>
+        <v>3.757617935538292</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.834733724594116</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0054977871477603</v>
+        <v>0.5377141237258911</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.47539234161377</v>
+        <v>-0.1299615800380706</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-12.02078425884247</v>
+        <v>-2.462630152702332</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3663914650678617</v>
+        <v>0.6072362959384919</v>
       </c>
       <c r="E6" t="n">
-        <v>3.381503492593767</v>
+        <v>3.575700670480729</v>
       </c>
       <c r="F6" t="n">
-        <v>2.41551399230957</v>
+        <v>-0.1346957832574844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4040873646736145</v>
+        <v>0.5236642360687256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6867652535438538</v>
+        <v>0.1327104717493057</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-19.42419934272767</v>
+        <v>-2.071417987346649</v>
       </c>
       <c r="D7" t="n">
-        <v>8.062076985836041</v>
+        <v>0.361852638423443</v>
       </c>
       <c r="E7" t="n">
-        <v>6.704323172569278</v>
+        <v>3.242989569902419</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.0175623763352632</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6850853562355042</v>
+        <v>-0.0714712366461753</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1965458989143371</v>
+        <v>-0.2777909636497497</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.815191864967314</v>
+        <v>-3.716687679290772</v>
       </c>
       <c r="D8" t="n">
-        <v>4.267351135611525</v>
+        <v>0.0018857717514038</v>
       </c>
       <c r="E8" t="n">
-        <v>2.374830707907669</v>
+        <v>4.452265739440918</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2154827117919922</v>
+        <v>0.0302378293126821</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3124575614929199</v>
+        <v>0.5580254197120667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2249511331319809</v>
+        <v>-0.6604980230331421</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.242185950279228</v>
+        <v>-5.890828639268875</v>
       </c>
       <c r="D9" t="n">
-        <v>1.317612782120705</v>
+        <v>0.2718941420316697</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6843594610691084</v>
+        <v>4.244596153497697</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1125519201159477</v>
+        <v>0.4694499373435974</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1751656085252761</v>
+        <v>-1.051451802253723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4828889667987823</v>
+        <v>-0.956462264060974</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.3276352286338837</v>
+        <v>-7.35106348991394</v>
       </c>
       <c r="D10" t="n">
-        <v>2.805960930883888</v>
+        <v>2.290824487805367</v>
       </c>
       <c r="E10" t="n">
-        <v>2.484445497393612</v>
+        <v>0.9694806933402997</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1719585657119751</v>
+        <v>-1.834733724594116</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7235698699951172</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-1.47539234161377</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.4897050857543918</v>
+        <v>-12.02078425884247</v>
       </c>
       <c r="D11" t="n">
-        <v>1.077956080436697</v>
+        <v>0.3663914650678617</v>
       </c>
       <c r="E11" t="n">
-        <v>1.630782932043069</v>
+        <v>3.381503492593767</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0491746515035629</v>
+        <v>2.41551399230957</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7188356518745422</v>
+        <v>0.4040873646736145</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3561344444751739</v>
+        <v>0.6867652535438538</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7483568191528327</v>
+        <v>-19.42419934272767</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1515689864754661</v>
+        <v>8.062076985836041</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4959011934697636</v>
+        <v>6.704323172569278</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0861319974064827</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2157881408929824</v>
+        <v>0.6850853562355042</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3926336467266083</v>
+        <v>0.1965458989143371</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.010472297668458</v>
+        <v>-1.815191864967314</v>
       </c>
       <c r="D13" t="n">
-        <v>2.143007203936576</v>
+        <v>4.267351135611525</v>
       </c>
       <c r="E13" t="n">
-        <v>1.17438416928053</v>
+        <v>2.374830707907669</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0914770737290382</v>
+        <v>-0.2154827117919922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1360702365636825</v>
+        <v>0.3124575614929199</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0354301854968071</v>
+        <v>0.2249511331319809</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2876673340797431</v>
+        <v>3.242185950279228</v>
       </c>
       <c r="D14" t="n">
-        <v>2.055301316082478</v>
+        <v>1.317612782120705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5345815420150758</v>
+        <v>0.6843594610691084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240056455135345</v>
+        <v>-0.1125519201159477</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0096211275085806</v>
+        <v>-0.1751656085252761</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4243986308574676</v>
+        <v>0.4828889667987823</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02689480781555212</v>
+        <v>-0.3276352286338837</v>
       </c>
       <c r="D15" t="n">
-        <v>1.347976356744766</v>
+        <v>2.805960930883888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6012542694807046</v>
+        <v>2.484445497393612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009468411095440299</v>
+        <v>-0.1719585657119751</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0371100641787052</v>
+        <v>-0.7235698699951172</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0630718395113945</v>
+        <v>-0.6099489331245422</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3917713761329649</v>
+        <v>-0.4897050857543918</v>
       </c>
       <c r="D16" t="n">
-        <v>1.835358053445816</v>
+        <v>1.077956080436697</v>
       </c>
       <c r="E16" t="n">
-        <v>1.164814613759517</v>
+        <v>1.630782932043069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0762054398655891</v>
+        <v>-0.0491746515035629</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1154535338282585</v>
+        <v>-0.7188356518745422</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0804814994335174</v>
+        <v>0.3561344444751739</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5543608665466312</v>
+        <v>0.7483568191528327</v>
       </c>
       <c r="D17" t="n">
-        <v>2.1431974619627</v>
+        <v>-0.1515689864754661</v>
       </c>
       <c r="E17" t="n">
-        <v>1.211873441934586</v>
+        <v>0.4959011934697636</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0861319974064827</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0511599630117416</v>
+        <v>0.2157881408929824</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0673478916287422</v>
+        <v>0.3926336467266083</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.09726172685623177</v>
+        <v>1.010472297668458</v>
       </c>
       <c r="D18" t="n">
-        <v>1.577953547239304</v>
+        <v>2.143007203936576</v>
       </c>
       <c r="E18" t="n">
-        <v>1.194159328937531</v>
+        <v>1.17438416928053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0189368221908807</v>
+        <v>-0.0914770737290382</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0048869219608604</v>
+        <v>0.1360702365636825</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0157297793775796</v>
+        <v>-0.0354301854968071</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,78 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3007450103759765</v>
+        <v>0.2876673340797431</v>
       </c>
       <c r="D19" t="n">
-        <v>1.845839619636536</v>
+        <v>2.055301316082478</v>
       </c>
       <c r="E19" t="n">
-        <v>1.076044678688049</v>
+        <v>0.5345815420150758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0064140851609408</v>
+        <v>0.1240056455135345</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0296269636601209</v>
+        <v>0.0096211275085806</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0337503030896186</v>
+        <v>-0.4243986308574676</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.02689480781555212</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.347976356744766</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6012542694807046</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.009468411095440299</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0371100641787052</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0630718395113945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3917713761329649</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.835358053445816</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.164814613759517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0762054398655891</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1154535338282585</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0804814994335174</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-24/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.7120251655578613</v>
+        <v>-0.3973007202148437</v>
       </c>
       <c r="D2" t="n">
-        <v>1.784507364034653</v>
+        <v>1.798293828964233</v>
       </c>
       <c r="E2" t="n">
-        <v>2.399995267391204</v>
+        <v>1.168385148048401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0018325957935303</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1020144969224929</v>
+        <v>0.0256563406437635</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0574213340878486</v>
+        <v>0.06856962293386459</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.8870223164558411</v>
+        <v>-0.8141142129898071</v>
       </c>
       <c r="D3" t="n">
-        <v>1.693844005465508</v>
+        <v>1.826734185218811</v>
       </c>
       <c r="E3" t="n">
-        <v>2.417137637734413</v>
+        <v>1.343665383756161</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1429424732923507</v>
+        <v>0.0575740486383438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.204487144947052</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0444404482841491</v>
+        <v>0.1545489132404327</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.0569589138031</v>
+        <v>-0.9248467683792115</v>
       </c>
       <c r="D4" t="n">
-        <v>1.552494168281555</v>
+        <v>1.964664489030838</v>
       </c>
       <c r="E4" t="n">
-        <v>2.973462641239166</v>
+        <v>1.209049716591835</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2125810980796814</v>
+        <v>-0.0140499006956815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4230241775512695</v>
+        <v>0.0291688162833452</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0167987942695617</v>
+        <v>0.0418442711234092</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.252092391252517</v>
+        <v>-0.7549184560775757</v>
       </c>
       <c r="D5" t="n">
-        <v>1.304344907402993</v>
+        <v>1.929333925247193</v>
       </c>
       <c r="E5" t="n">
-        <v>3.757617935538292</v>
+        <v>1.357575602829456</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0858265683054924</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5377141237258911</v>
+        <v>-0.0210748501121997</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1299615800380706</v>
+        <v>0.0074830991216003</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.462630152702332</v>
+        <v>-0.4957029819488525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6072362959384919</v>
+        <v>1.878820419311524</v>
       </c>
       <c r="E6" t="n">
-        <v>3.575700670480729</v>
+        <v>1.164325326681137</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1346957832574844</v>
+        <v>0.0100792767480015</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5236642360687256</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1327104717493057</v>
+        <v>-0.0143553335219621</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.071417987346649</v>
+        <v>-0.8541634678840635</v>
       </c>
       <c r="D7" t="n">
-        <v>0.361852638423443</v>
+        <v>1.869282335042953</v>
       </c>
       <c r="E7" t="n">
-        <v>3.242989569902419</v>
+        <v>1.307794235646725</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0175623763352632</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2777909636497497</v>
+        <v>-0.016951510682702</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.716687679290772</v>
+        <v>-0.8955824375152587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0018857717514038</v>
+        <v>1.77057421207428</v>
       </c>
       <c r="E8" t="n">
-        <v>4.452265739440918</v>
+        <v>1.258034527301789</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0302378293126821</v>
+        <v>0.0010690141934901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5580254197120667</v>
+        <v>0.0012217304902151</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6604980230331421</v>
+        <v>-0.0684169083833694</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.890828639268875</v>
+        <v>-0.5728458166122438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2718941420316697</v>
+        <v>1.762963086366654</v>
       </c>
       <c r="E9" t="n">
-        <v>4.244596153497697</v>
+        <v>1.322432711720467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4694499373435974</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.051451802253723</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.956462264060974</v>
+        <v>-0.07605272531509399</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.35106348991394</v>
+        <v>-0.5884580612182617</v>
       </c>
       <c r="D10" t="n">
-        <v>2.290824487805367</v>
+        <v>1.777032017707825</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9694806933402997</v>
+        <v>1.320214748382568</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.834733724594116</v>
+        <v>-0.0381790772080421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0054977871477603</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.47539234161377</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-12.02078425884247</v>
+        <v>-0.7303044199943542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3663914650678617</v>
+        <v>1.775961980223656</v>
       </c>
       <c r="E11" t="n">
-        <v>3.381503492593767</v>
+        <v>1.753339484333992</v>
       </c>
       <c r="F11" t="n">
-        <v>2.41551399230957</v>
+        <v>-0.0554360225796699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4040873646736145</v>
+        <v>0.0329867228865623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6867652535438538</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-19.42419934272767</v>
+        <v>-0.7120251655578613</v>
       </c>
       <c r="D12" t="n">
-        <v>8.062076985836041</v>
+        <v>1.784507364034653</v>
       </c>
       <c r="E12" t="n">
-        <v>6.704323172569278</v>
+        <v>2.399995267391204</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.168751522898674</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6850853562355042</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1965458989143371</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.815191864967314</v>
+        <v>-0.8870223164558411</v>
       </c>
       <c r="D13" t="n">
-        <v>4.267351135611525</v>
+        <v>1.693844005465508</v>
       </c>
       <c r="E13" t="n">
-        <v>2.374830707907669</v>
+        <v>2.417137637734413</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2154827117919922</v>
+        <v>-0.1429424732923507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3124575614929199</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2249511331319809</v>
+        <v>0.0444404482841491</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.242185950279228</v>
+        <v>-1.0569589138031</v>
       </c>
       <c r="D14" t="n">
-        <v>1.317612782120705</v>
+        <v>1.552494168281555</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6843594610691084</v>
+        <v>2.973462641239166</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1125519201159477</v>
+        <v>-0.2125810980796814</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1751656085252761</v>
+        <v>0.4230241775512695</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4828889667987823</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.3276352286338837</v>
+        <v>-1.252092391252517</v>
       </c>
       <c r="D15" t="n">
-        <v>2.805960930883888</v>
+        <v>1.304344907402993</v>
       </c>
       <c r="E15" t="n">
-        <v>2.484445497393612</v>
+        <v>3.757617935538292</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1719585657119751</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7235698699951172</v>
+        <v>0.5377141237258911</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-0.1299615800380706</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.4897050857543918</v>
+        <v>-2.462630152702332</v>
       </c>
       <c r="D16" t="n">
-        <v>1.077956080436697</v>
+        <v>0.6072362959384919</v>
       </c>
       <c r="E16" t="n">
-        <v>1.630782932043069</v>
+        <v>3.575700670480729</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0491746515035629</v>
+        <v>-0.1346957832574844</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7188356518745422</v>
+        <v>0.5236642360687256</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3561344444751739</v>
+        <v>0.1327104717493057</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7483568191528327</v>
+        <v>-2.071417987346649</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1515689864754661</v>
+        <v>0.361852638423443</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4959011934697636</v>
+        <v>3.242989569902419</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0861319974064827</v>
+        <v>-0.0175623763352632</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2157881408929824</v>
+        <v>-0.0714712366461753</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3926336467266083</v>
+        <v>-0.2777909636497497</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.010472297668458</v>
+        <v>-3.716687679290772</v>
       </c>
       <c r="D18" t="n">
-        <v>2.143007203936576</v>
+        <v>0.0018857717514038</v>
       </c>
       <c r="E18" t="n">
-        <v>1.17438416928053</v>
+        <v>4.452265739440918</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0914770737290382</v>
+        <v>0.0302378293126821</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1360702365636825</v>
+        <v>0.5580254197120667</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0354301854968071</v>
+        <v>-0.6604980230331421</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2876673340797431</v>
+        <v>-5.890828639268875</v>
       </c>
       <c r="D19" t="n">
-        <v>2.055301316082478</v>
+        <v>0.2718941420316697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5345815420150758</v>
+        <v>4.244596153497697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1240056455135345</v>
+        <v>0.4694499373435974</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0096211275085806</v>
+        <v>-1.051451802253723</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.4243986308574676</v>
+        <v>-0.956462264060974</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.02689480781555212</v>
+        <v>-7.35106348991394</v>
       </c>
       <c r="D20" t="n">
-        <v>1.347976356744766</v>
+        <v>2.290824487805367</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6012542694807046</v>
+        <v>0.9694806933402997</v>
       </c>
       <c r="F20" t="n">
-        <v>0.009468411095440299</v>
+        <v>-1.834733724594116</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0371100641787052</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0630718395113945</v>
+        <v>-1.47539234161377</v>
       </c>
     </row>
     <row r="21">
@@ -1017,21 +1017,301 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-12.02078425884247</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3663914650678617</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.381503492593767</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.41551399230957</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4040873646736145</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6867652535438538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-19.42419934272767</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.062076985836041</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.704323172569278</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.168751522898674</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6850853562355042</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1965458989143371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.815191864967314</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.267351135611525</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.374830707907669</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2154827117919922</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3124575614929199</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2249511331319809</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.242185950279228</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.317612782120705</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6843594610691084</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1125519201159477</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1751656085252761</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4828889667987823</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3276352286338837</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.805960930883888</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.484445497393612</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1719585657119751</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.7235698699951172</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.6099489331245422</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4897050857543918</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.077956080436697</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.630782932043069</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0491746515035629</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.7188356518745422</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3561344444751739</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7483568191528327</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1515689864754661</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4959011934697636</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0861319974064827</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2157881408929824</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3926336467266083</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.010472297668458</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.143007203936576</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.17438416928053</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0914770737290382</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1360702365636825</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0354301854968071</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2876673340797431</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.055301316082478</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5345815420150758</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1240056455135345</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0096211275085806</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.4243986308574676</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.02689480781555212</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.347976356744766</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6012542694807046</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.009468411095440299</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0371100641787052</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0630718395113945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>0.3917713761329649</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D31" t="n">
         <v>1.835358053445816</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E31" t="n">
         <v>1.164814613759517</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F31" t="n">
         <v>0.0762054398655891</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G31" t="n">
         <v>0.1154535338282585</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H31" t="n">
         <v>0.0804814994335174</v>
       </c>
     </row>
